--- a/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_TamUng.xlsx
+++ b/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_TamUng.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\VonDauTu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\VonDauTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -593,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -614,15 +614,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -755,9 +746,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -791,7 +780,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,7 +819,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -863,23 +852,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,89 +880,93 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1759,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1786,45 +1775,45 @@
         <v>58</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="17.25">
@@ -1836,15 +1825,15 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="17.25">
@@ -1901,13 +1890,13 @@
       <c r="A12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="3"/>
       <c r="H12" s="9"/>
     </row>
@@ -1990,10 +1979,10 @@
       <c r="B19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="3"/>
@@ -2030,83 +2019,83 @@
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="74" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="47" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="17.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="47" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="17.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="49" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="3"/>
@@ -2116,7 +2105,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="38"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="52" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="38"/>
@@ -2158,23 +2147,23 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="17.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="17.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="3"/>
@@ -2184,19 +2173,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="17.25">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="3"/>
@@ -2217,8 +2206,8 @@
         <v>73</v>
       </c>
       <c r="B36" s="38"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="3"/>
@@ -2228,32 +2217,32 @@
         <v>74</v>
       </c>
       <c r="B37" s="38"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="17.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="17.25">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="3"/>
@@ -2277,26 +2266,26 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="16.5">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
       <c r="G42" s="18"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="17.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="33"/>
       <c r="H43" s="22"/>
     </row>
@@ -2304,193 +2293,224 @@
       <c r="A44" s="34"/>
       <c r="B44" s="35"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="17.25">
       <c r="A45" s="34"/>
       <c r="B45" s="35"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="37"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="56"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="58" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="79"/>
+      <c r="C48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="58" t="s">
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="1:9" ht="16.5">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="59" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59" t="s">
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
     </row>
     <row r="51" spans="1:9" ht="16.5">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
     </row>
     <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="36"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="57"/>
+      <c r="I52" s="55"/>
     </row>
     <row r="53" spans="1:9" ht="16.5">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="84" t="s">
+      <c r="B53" s="57"/>
+      <c r="C53" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58" t="s">
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
     </row>
     <row r="54" spans="1:9" ht="16.5">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="84" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="1:9" ht="16.5">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
     </row>
     <row r="56" spans="1:9" ht="16.5">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="85" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A57:B57"/>
@@ -2507,41 +2527,10 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="D52:F52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="41" max="8" man="1"/>
   </rowBreaks>

--- a/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_TamUng.xlsx
+++ b/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_TamUng.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">Sheet1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -290,55 +290,6 @@
   </si>
   <si>
     <t>&lt;#FormatNumber(&lt;#FTongThanhToan&gt; )&gt; &lt;#DonViTinh&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChucDanh3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChucDanh4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChucDanh2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChucDanh5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChucDanh1&gt;</t>
   </si>
 </sst>
 </file>
@@ -746,7 +697,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -882,9 +835,64 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -894,18 +902,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -918,55 +920,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,6 +939,1086 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1616507</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1124354</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>155479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1616507" y="12093946"/>
+          <a:ext cx="1692994" cy="488857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten2&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>186079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1706154</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22412" y="10876491"/>
+          <a:ext cx="1683742" cy="631949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh1&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350621</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>799762</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5023474" y="10903321"/>
+          <a:ext cx="1692994" cy="560297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh4&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>754939</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1185577</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>118010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6671645" y="11539955"/>
+          <a:ext cx="1674491" cy="366643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317003</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>766144</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4989856" y="11528749"/>
+          <a:ext cx="1692994" cy="366643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>4&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1672536</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1180383</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>115693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1672536" y="10892117"/>
+          <a:ext cx="1692994" cy="586341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh2&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809013</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1230400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6725719" y="10910110"/>
+          <a:ext cx="1665240" cy="575919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh5&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>996464</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160121</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3181611" y="10892118"/>
+          <a:ext cx="1651363" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh3&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317004</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>761519</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4989857" y="12082741"/>
+          <a:ext cx="1688368" cy="482068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten4&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>749073</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1161209</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6665779" y="12105152"/>
+          <a:ext cx="1655989" cy="482068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten5&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>195187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1694948</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11206" y="11557952"/>
+          <a:ext cx="1683742" cy="366643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1652080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>172775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1164553</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1652080" y="11535540"/>
+          <a:ext cx="1697620" cy="359854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1099271</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>172774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3284418" y="11535539"/>
+          <a:ext cx="1522906" cy="359854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1683742</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12105152"/>
+          <a:ext cx="1683742" cy="482068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten1&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1099271</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3284418" y="12105153"/>
+          <a:ext cx="1511700" cy="482068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten3&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1748,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1775,45 +2808,45 @@
         <v>58</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="17.25">
@@ -1825,15 +2858,15 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="17.25">
@@ -1890,13 +2923,13 @@
       <c r="A12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="3"/>
       <c r="H12" s="9"/>
     </row>
@@ -1979,10 +3012,10 @@
       <c r="B19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="3"/>
@@ -2019,30 +3052,30 @@
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="77" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="78"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="45" t="s">
         <v>14</v>
       </c>
@@ -2147,23 +3180,23 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="17.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="17.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="3"/>
@@ -2173,19 +3206,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="17.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="3"/>
@@ -2206,8 +3239,8 @@
         <v>73</v>
       </c>
       <c r="B36" s="38"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="3"/>
@@ -2217,8 +3250,8 @@
         <v>74</v>
       </c>
       <c r="B37" s="38"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="3"/>
@@ -2228,21 +3261,21 @@
         <v>25</v>
       </c>
       <c r="B38" s="50"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="17.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="3"/>
@@ -2266,14 +3299,14 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="16.5">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="18"/>
       <c r="H42" s="21"/>
     </row>
@@ -2281,11 +3314,11 @@
       <c r="A43" s="72"/>
       <c r="B43" s="73"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="33"/>
       <c r="H43" s="22"/>
     </row>
@@ -2322,38 +3355,26 @@
       <c r="I46" s="54"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A47" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A48" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="55"/>
@@ -2367,21 +3388,15 @@
       <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A50" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
     </row>
     <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="55"/>
@@ -2398,46 +3413,34 @@
       <c r="A52" s="36"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="55"/>
     </row>
     <row r="53" spans="1:9" ht="16.5">
-      <c r="A53" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="16.5">
-      <c r="A54" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="55"/>
@@ -2462,24 +3465,49 @@
       <c r="I56" s="55"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A57" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="56" t="s">
-        <v>77</v>
-      </c>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:I47"/>
@@ -2495,45 +3523,15 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="41" max="8" man="1"/>
+    <brk id="41" max="5" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
